--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RPA\KR\Ulsan\OGC\robot999\SGS_RPA_KR_Ulsan_OGC_6_Navarik_Register\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D25549-3F01-43A7-9732-7AD32C8B2E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3121B7-789B-4657-A289-76FA01D85A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,9 +642,6 @@
     <t>navarikURL</t>
   </si>
   <si>
-    <t>\\10.153.1.33\KR_Automation\RPA\KR\Ulsan\OGC</t>
-  </si>
-  <si>
     <t>hyunjin.kim@sgs.com</t>
   </si>
   <si>
@@ -655,6 +652,10 @@
   </si>
   <si>
     <t>SGS_RPA_KR_Ulsan_OGC_6_Navarik_Register</t>
+  </si>
+  <si>
+    <t>\\10.153.4.98\KR_Automation\RPA\KR\Ulsan\OGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1085,9 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,7 +1115,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>75</v>
@@ -1144,7 +1143,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" t="s">
@@ -1156,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>64</v>
@@ -1170,7 +1169,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
@@ -1182,7 +1181,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>65</v>
@@ -1232,7 +1231,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1"/>
     </row>
